--- a/data/hti/employees_HTI.xlsx
+++ b/data/hti/employees_HTI.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>64.2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['Late-night login detected (1 in the past 30 days)', 'Failed logins recorded (5 in the past 30 days)', 'Security training not completed', "Recent email activity to an external address (tatemegan@nunez-jones.com) with a potentially sensitive subject ('Internal compliance reminder')", "Employee's performance rating is average (1 out of 5)"]</t>
+          <t>The HUMAN THREAT INDEX (HTI) is calculated based on Behavioral Risk Score (BRS), Compliance Risk Score (CRS), and Insider Intent Score (IIS). BRS is INSUFFICIENT_DATA due to missing login_failures_30d, privilege_escalations_30d, suspicious_file_access_30d, and email_anomalies_30d. CRS is 0 since security_training_score is not provided. IIS is calculated based on psychometric_risk_score (not provided) and tenure_years (not provided). As a result, HTI is INSUFFICIENT_DATA.</t>
         </is>
       </c>
     </row>
@@ -482,16 +482,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42</v>
+        <v>34.4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['The employee has exhibited medium-level risk factors, primarily due to their HR role and moderate login frequency (36 logins past 30d).', 'They have also shown some suspicious attachment activity (2 attachments past 30d) and have recently sent an email to an external recipient.', 'However, the lack of failed logins, late-night logins, and large file transfers, as well as their satisfactory performance rating, mitigate some of these risks.']</t>
+          <t>The HUMAN THREAT INDEX (HTI) is calculated based on Behavioral Risk Score (BRS), Compliance Risk Score (CRS), and Insider Intent Score (IIS). Since all scores are available, the HTI is computed as (34.4 * 0.4) + (0 * 0.3) + (INSUFFICIENT_DATA * 0.3) = 13.76. Due to INSUFFICIENT_DATA in IIS, the risk level is set to 'Low'.</t>
         </is>
       </c>
     </row>
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42</v>
+        <v>34.4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['Laura Brown has a medium HTI score due to several risk factors, including 1 failed login in the past 30 days and an average daily email count that is higher than normal.', 'However, her security training was completed on time, and she does not have any privileged accounts or contractor status.', "Additionally, Laura's recent email activity suggests that it is primarily internal, which reduces her risk level."]</t>
+          <t>The HUMAN THREAT INDEX (HTI) is calculated based on Behavioral Risk Score (BRS), Compliance Risk Score (CRS), and Insider Intent Score (IIS). Since all scores are available, the HTI is computed as (34.4 * 0.4) + (0 * 0.3) + (INSUFFICIENT_DATA * 0.3) = 13.76. Due to INSUFFICIENT_DATA in IIS, the risk level is set to 'Low'.</t>
         </is>
       </c>
     </row>
@@ -522,16 +522,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82</v>
+        <v>34.4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['Behavioral anomalies: Patricia has been actively logging in late at night (1 occasion) and her average daily email count is high (88), indicating potential overwork or stress.', "Risk factors: As a Process Manager, she has access level 3, which increases the risk of insider threats. Additionally, she hasn't completed security training, leaving her vulnerable to phishing attacks.", 'Weighted scoring logic: The late-night login and high email count contribute heavily to her HTI score (35 points). Her role and access level add another 20 points, while the lack of security training adds 10 points.']</t>
+          <t>The HUMAN THREAT INDEX (HTI) is calculated based on Behavioral Risk Score (BRS), Compliance Risk Score (CRS), and Insider Intent Score (IIS). Since all scores are available, the HTI is computed as (34.4 * 0.4) + (0 * 0.3) + (INSUFFICIENT_DATA * 0.3) = 13.76. Due to INSUFFICIENT_DATA in IIS, the risk level is set to 'Low'.</t>
         </is>
       </c>
     </row>
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82</v>
+        <v>64.2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['The employee has a high access level (5) and is a privileged user.', 'They have had 43 logins past 30 days, with 3 failed logins and 3 late-night logins, indicating potential unauthorized access attempts.', 'There are 4 large file transfers in the past 30 days, which may indicate data exfiltration or sharing.', 'The employee has sent an email to an external recipient (bryantstephanie@jackson.net) with a subject line related to client review, indicating potential external communication that is not flagged as suspicious.', 'The activity summary suggests the employee may be reviewing accounts in the Middle East region, which could indicate sensitive information access or manipulation.']</t>
+          <t>The HUMAN THREAT INDEX (HTI) is calculated based on Behavioral Risk Score (BRS), Compliance Risk Score (CRS), and Insider Intent Score (IIS). BRS is INSUFFICIENT_DATA due to missing fields, while CRS and IIS are calculated. The HTI score is rounded to 2 decimal places.</t>
         </is>
       </c>
     </row>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74</v>
+        <v>34.4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['Late-night login activity detected (1 out of 5) which may indicate a higher level of suspicious behavior.', 'Presence of suspicious attachments (2 out of 0.3) in the past 30 days raises concerns about potential data exfiltration.', "The employee's average daily email count is high (97), with an external email ratio of 14%, indicating potential external communication that may not be work-related.", 'Recent email activity shows a connection to Leslie Miles-Hart, which may indicate collusion or coordination with someone outside the organization.', 'The employee has received a performance rating of 2, which is below average and may indicate some level of dissatisfaction or motivation to take malicious action.']</t>
+          <t>The HUMAN THREAT INDEX (HTI) is calculated based on Behavioral Risk Score (BRS), Compliance Risk Score (CRS), and Insider Intent Score (IIS). Since all scores are available, the HTI is computed as (34.4 * 0.4) + (0 * 0.3) + (INSUFFICIENT_DATA * 0.3) = 13.76. Due to INSUFFICIENT_DATA in IIS, the risk level is set to 'Low'.</t>
         </is>
       </c>
     </row>
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43</v>
+        <v>34.4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['The employee has a high number of logins (74) within the past 30 days, which may indicate increased activity or unauthorized access.', 'Although they have completed security training, their recent email exchange with an external recipient suggests potential insider threats.', "Accessing customer records via Customer 360 is a normal behavior for this role, but it's still worth monitoring."]</t>
+          <t>The HUMAN THREAT INDEX (HTI) is calculated based on Behavioral Risk Score (BRS), Compliance Risk Score (CRS), and Insider Intent Score (IIS). Since all scores are available, the HTI is computed as (34.4 * 0.4) + (0 * 0.3) + (INSUFFICIENT_DATA * 0.3) = 13.76. Due to INSUFFICIENT_DATA in IIS, the risk level is set to 'Low'.</t>
         </is>
       </c>
     </row>
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>34.4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['Anomalous login activity: 28 logins in the past 30 days, which is higher than average.', 'Recent email to an external recipient (qcarter@alexander.org) with a subject indicating urgent access request.', 'Average daily email count is slightly higher than usual (27 vs. 20).', 'Employee has not received security training recently, last training was on 2024-05-04.', 'Performance rating is average (1 out of 5), which may indicate some level of discontent or dissatisfaction.']</t>
+          <t>The HUMAN THREAT INDEX (HTI) is calculated based on Behavioral Risk Score (BRS), Compliance Risk Score (CRS), and Insider Intent Score (IIS). Since all scores are available, the HTI is computed as (34.4 * 0.4) + (0 * 0.3) + (INSUFFICIENT_DATA * 0.3) = 13.76. Due to INSUFFICIENT_DATA in IIS, the risk level is set to 'Low'.</t>
         </is>
       </c>
     </row>
@@ -622,16 +622,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74</v>
+        <v>34.4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['The employee has logged in frequently (55 logins) with no failed logins past 30 days.', 'They have a recent email to an external recipient (ehaney@chavez.biz), indicating potential information sharing or compromise.', 'Suspicious attachments were detected in the past 30 days, raising concerns about malware transmission.', 'No security training was completed in the given time frame, increasing the risk of human error.', "The employee's activity summary indicates a recent export of a transaction report for an unknown region, which could be a potential data breach."]</t>
+          <t>The HUMAN THREAT INDEX (HTI) is calculated based on Behavioral Risk Score (BRS), Compliance Risk Score (CRS), and Insider Intent Score (IIS). Since all scores are available, the HTI is computed as (34.4 * 0.4) + (0 * 0.3) + (INSUFFICIENT_DATA * 0.3) = 13.76. Due to INSUFFICIENT_DATA in IIS, the risk level is set to 'Low'.</t>
         </is>
       </c>
     </row>
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>34.2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['The employee has an access level of 5, indicating elevated privileges.', 'They have not completed security training, which is a risk factor.', 'There are no behavioral anomalies in their login patterns or file transfers.', 'Their performance rating is average (3/5), and they recently sent an email to an external recipient.']</t>
+          <t>The HUMAN THREAT INDEX (HTI) is calculated based on Behavioral Risk Score (BRS), Compliance Risk Score (CRS), and Insider Intent Score (IIS). Since all scores are available, the HTI is computed as (34.2 * 0.4) + (0 * 0.3) + (INSUFFICIENT_DATA * 0.3) = 13.68. Due to INSUFFICIENT_DATA in IIS, the risk level is set to 'Low'.</t>
         </is>
       </c>
     </row>
